--- a/last_reference/NCCN-2024.V5_EN.xlsx
+++ b/last_reference/NCCN-2024.V5_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11500"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8020,8 +8020,8 @@
   <sheetPr/>
   <dimension ref="A1:G742"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A641" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G653"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
